--- a/dbms/테이블명세(2023-07-11).xlsx
+++ b/dbms/테이블명세(2023-07-11).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505225\Documents\workspace\damples_spring\dbms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\workspace\damples_spring\dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE06CEA1-5689-4000-98CA-EF020B2C6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8FA4BF-AB11-4B31-B273-A2A00392B9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="게시판" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(13)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(100)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -303,10 +299,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(13)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>문자열(100)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -328,6 +320,18 @@
   </si>
   <si>
     <t>tour_imgcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1237,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1984,7 +1988,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>48</v>
@@ -2009,13 +2013,13 @@
         <v>39</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -2032,7 +2036,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>50</v>
@@ -2078,7 +2082,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>52</v>
@@ -2101,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>53</v>
@@ -2124,13 +2128,13 @@
         <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -2147,7 +2151,7 @@
         <v>44</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>55</v>
@@ -2170,13 +2174,13 @@
         <v>45</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -2193,13 +2197,13 @@
         <v>46</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -2213,16 +2217,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -2239,10 +2243,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>58</v>
